--- a/Analytics/SC0/TGMXcorners_sc0.xlsx
+++ b/Analytics/SC0/TGMXcorners_sc0.xlsx
@@ -100,7 +100,7 @@
     <t>SUM("TTGMXcorners")</t>
   </si>
   <si>
-    <t>SUM("TTGMXcorners") / 30</t>
+    <t>SUM("TTGMXcorners") / 38</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
         <v>80332.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2677.733333333333</v>
+        <v>2114.0</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         <v>79932.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2664.4</v>
+        <v>2103.4736842105262</v>
       </c>
     </row>
     <row r="4">
@@ -510,7 +510,7 @@
         <v>71994.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2399.8</v>
+        <v>1894.578947368421</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         <v>66563.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2218.766666666667</v>
+        <v>1751.657894736842</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         <v>64599.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2153.3</v>
+        <v>1699.9736842105262</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         <v>60776.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2025.8666666666666</v>
+        <v>1599.3684210526317</v>
       </c>
     </row>
     <row r="8">
@@ -566,7 +566,7 @@
         <v>57662.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1922.0666666666666</v>
+        <v>1517.421052631579</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>54387.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1812.9</v>
+        <v>1431.2368421052631</v>
       </c>
     </row>
     <row r="10">
@@ -594,7 +594,7 @@
         <v>50373.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1679.1</v>
+        <v>1325.6052631578948</v>
       </c>
     </row>
     <row r="11">
@@ -608,7 +608,7 @@
         <v>49496.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.8666666666666</v>
+        <v>1302.5263157894738</v>
       </c>
     </row>
     <row r="12">
@@ -622,7 +622,7 @@
         <v>49227.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1640.9</v>
+        <v>1295.4473684210527</v>
       </c>
     </row>
     <row r="13">
@@ -636,7 +636,7 @@
         <v>48689.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1622.9666666666667</v>
+        <v>1281.2894736842106</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SC0/TGMXcorners_sc0.xlsx
+++ b/Analytics/SC0/TGMXcorners_sc0.xlsx
@@ -58,40 +58,40 @@
     <t>12</t>
   </si>
   <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
     <t>Rangers</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -168,7 +168,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>43630.0</v>
+        <v>13181.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,7 +179,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>43186.0</v>
+        <v>11264.0</v>
       </c>
     </row>
     <row r="4">
@@ -190,7 +190,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>41877.0</v>
+        <v>9841.0</v>
       </c>
     </row>
     <row r="5">
@@ -201,7 +201,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>32130.0</v>
+        <v>9414.0</v>
       </c>
     </row>
     <row r="6">
@@ -212,7 +212,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>31739.0</v>
+        <v>9362.0</v>
       </c>
     </row>
     <row r="7">
@@ -223,7 +223,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>30110.0</v>
+        <v>9277.0</v>
       </c>
     </row>
     <row r="8">
@@ -234,7 +234,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>28788.0</v>
+        <v>7894.0</v>
       </c>
     </row>
     <row r="9">
@@ -245,7 +245,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>26195.0</v>
+        <v>7792.0</v>
       </c>
     </row>
     <row r="10">
@@ -256,7 +256,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>24412.0</v>
+        <v>7083.0</v>
       </c>
     </row>
     <row r="11">
@@ -267,7 +267,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>24280.0</v>
+        <v>6787.0</v>
       </c>
     </row>
     <row r="12">
@@ -278,7 +278,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>20887.0</v>
+        <v>6358.0</v>
       </c>
     </row>
     <row r="13">
@@ -289,7 +289,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>19781.0</v>
+        <v>4997.0</v>
       </c>
     </row>
   </sheetData>
@@ -319,10 +319,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>38455.0</v>
+        <v>13640.0</v>
       </c>
     </row>
     <row r="3">
@@ -330,10 +330,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>36746.0</v>
+        <v>11641.0</v>
       </c>
     </row>
     <row r="4">
@@ -341,10 +341,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>34824.0</v>
+        <v>11065.0</v>
       </c>
     </row>
     <row r="5">
@@ -352,10 +352,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>32469.0</v>
+        <v>10175.0</v>
       </c>
     </row>
     <row r="6">
@@ -363,10 +363,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>30666.0</v>
+        <v>9504.0</v>
       </c>
     </row>
     <row r="7">
@@ -374,10 +374,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>30592.0</v>
+        <v>8384.0</v>
       </c>
     </row>
     <row r="8">
@@ -385,10 +385,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>28874.0</v>
+        <v>8206.0</v>
       </c>
     </row>
     <row r="9">
@@ -399,7 +399,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>28364.0</v>
+        <v>8166.0</v>
       </c>
     </row>
     <row r="10">
@@ -407,10 +407,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>28192.0</v>
+        <v>7395.0</v>
       </c>
     </row>
     <row r="11">
@@ -418,10 +418,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>27802.0</v>
+        <v>5446.0</v>
       </c>
     </row>
     <row r="12">
@@ -429,10 +429,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>25216.0</v>
+        <v>5441.0</v>
       </c>
     </row>
     <row r="13">
@@ -440,10 +440,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>24815.0</v>
+        <v>4187.0</v>
       </c>
     </row>
   </sheetData>
@@ -476,13 +476,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>80332.0</v>
+        <v>21347.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2114.0</v>
+        <v>561.7631578947369</v>
       </c>
     </row>
     <row r="3">
@@ -490,13 +490,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>79932.0</v>
+        <v>20479.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2103.4736842105262</v>
+        <v>538.921052631579</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>71994.0</v>
+        <v>20427.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1894.578947368421</v>
+        <v>537.5526315789474</v>
       </c>
     </row>
     <row r="5">
@@ -518,13 +518,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>66563.0</v>
+        <v>18225.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1751.657894736842</v>
+        <v>479.60526315789474</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>64599.0</v>
+        <v>17999.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1699.9736842105262</v>
+        <v>473.6578947368421</v>
       </c>
     </row>
     <row r="7">
@@ -546,13 +546,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>60776.0</v>
+        <v>17967.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1599.3684210526317</v>
+        <v>472.8157894736842</v>
       </c>
     </row>
     <row r="8">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>57662.0</v>
+        <v>17483.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1517.421052631579</v>
+        <v>460.07894736842104</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>54387.0</v>
+        <v>16705.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1431.2368421052631</v>
+        <v>439.60526315789474</v>
       </c>
     </row>
     <row r="10">
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>50373.0</v>
+        <v>16587.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1325.6052631578948</v>
+        <v>436.5</v>
       </c>
     </row>
     <row r="11">
@@ -602,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>49496.0</v>
+        <v>15289.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1302.5263157894738</v>
+        <v>402.3421052631579</v>
       </c>
     </row>
     <row r="12">
@@ -616,13 +616,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>49227.0</v>
+        <v>14808.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1295.4473684210527</v>
+        <v>389.6842105263158</v>
       </c>
     </row>
     <row r="13">
@@ -630,13 +630,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>48689.0</v>
+        <v>9184.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1281.2894736842106</v>
+        <v>241.68421052631578</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SC0/TGMXcorners_sc0.xlsx
+++ b/Analytics/SC0/TGMXcorners_sc0.xlsx
@@ -58,34 +58,34 @@
     <t>12</t>
   </si>
   <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
     <t>St Johnstone</t>
   </si>
   <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
     <t>Dundee</t>
   </si>
   <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
     <t>Celtic</t>
   </si>
   <si>
     <t>Ross County</t>
   </si>
   <si>
-    <t>Hibernian</t>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
   </si>
   <si>
     <t>St Mirren</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
   </si>
   <si>
     <t>Hearts</t>
@@ -168,7 +168,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>13181.0</v>
+        <v>14164.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,7 +179,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>11264.0</v>
+        <v>13181.0</v>
       </c>
     </row>
     <row r="4">
@@ -190,7 +190,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>9841.0</v>
+        <v>11317.0</v>
       </c>
     </row>
     <row r="5">
@@ -201,7 +201,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>9414.0</v>
+        <v>11264.0</v>
       </c>
     </row>
     <row r="6">
@@ -212,7 +212,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>9362.0</v>
+        <v>9414.0</v>
       </c>
     </row>
     <row r="7">
@@ -223,7 +223,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>9277.0</v>
+        <v>9362.0</v>
       </c>
     </row>
     <row r="8">
@@ -234,7 +234,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>7894.0</v>
+        <v>8819.0</v>
       </c>
     </row>
     <row r="9">
@@ -245,7 +245,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>7792.0</v>
+        <v>8464.0</v>
       </c>
     </row>
     <row r="10">
@@ -256,7 +256,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>7083.0</v>
+        <v>7987.0</v>
       </c>
     </row>
     <row r="11">
@@ -267,7 +267,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>6787.0</v>
+        <v>7894.0</v>
       </c>
     </row>
     <row r="12">
@@ -289,7 +289,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>4997.0</v>
+        <v>5087.0</v>
       </c>
     </row>
   </sheetData>
@@ -319,7 +319,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
         <v>13640.0</v>
@@ -330,10 +330,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>11641.0</v>
+        <v>12265.0</v>
       </c>
     </row>
     <row r="4">
@@ -341,10 +341,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>11065.0</v>
+        <v>11731.0</v>
       </c>
     </row>
     <row r="5">
@@ -363,10 +363,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>9504.0</v>
+        <v>9764.0</v>
       </c>
     </row>
     <row r="7">
@@ -374,10 +374,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>8384.0</v>
+        <v>9504.0</v>
       </c>
     </row>
     <row r="8">
@@ -385,10 +385,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>8206.0</v>
+        <v>9435.0</v>
       </c>
     </row>
     <row r="9">
@@ -396,10 +396,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>8166.0</v>
+        <v>8838.0</v>
       </c>
     </row>
     <row r="10">
@@ -407,10 +407,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>7395.0</v>
+        <v>8384.0</v>
       </c>
     </row>
     <row r="11">
@@ -418,10 +418,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>5446.0</v>
+        <v>8206.0</v>
       </c>
     </row>
     <row r="12">
@@ -429,10 +429,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>5441.0</v>
+        <v>7182.0</v>
       </c>
     </row>
     <row r="13">
@@ -479,10 +479,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>21347.0</v>
+        <v>22548.0</v>
       </c>
       <c r="D2" t="n">
-        <v>561.7631578947369</v>
+        <v>593.3684210526316</v>
       </c>
     </row>
     <row r="3">
@@ -490,13 +490,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>20479.0</v>
+        <v>22019.0</v>
       </c>
       <c r="D3" t="n">
-        <v>538.921052631579</v>
+        <v>579.4473684210526</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>20427.0</v>
+        <v>21679.0</v>
       </c>
       <c r="D4" t="n">
-        <v>537.5526315789474</v>
+        <v>570.5</v>
       </c>
     </row>
     <row r="5">
@@ -518,13 +518,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>18225.0</v>
+        <v>21627.0</v>
       </c>
       <c r="D5" t="n">
-        <v>479.60526315789474</v>
+        <v>569.1315789473684</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>17999.0</v>
+        <v>21028.0</v>
       </c>
       <c r="D6" t="n">
-        <v>473.6578947368421</v>
+        <v>553.3684210526316</v>
       </c>
     </row>
     <row r="7">
@@ -546,13 +546,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>17967.0</v>
+        <v>19523.0</v>
       </c>
       <c r="D7" t="n">
-        <v>472.8157894736842</v>
+        <v>513.7631578947369</v>
       </c>
     </row>
     <row r="8">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>17483.0</v>
+        <v>18639.0</v>
       </c>
       <c r="D8" t="n">
-        <v>460.07894736842104</v>
+        <v>490.5</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>16705.0</v>
+        <v>18323.0</v>
       </c>
       <c r="D9" t="n">
-        <v>439.60526315789474</v>
+        <v>482.1842105263158</v>
       </c>
     </row>
     <row r="10">
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>16587.0</v>
+        <v>18089.0</v>
       </c>
       <c r="D10" t="n">
-        <v>436.5</v>
+        <v>476.0263157894737</v>
       </c>
     </row>
     <row r="11">
@@ -602,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>15289.0</v>
+        <v>17329.0</v>
       </c>
       <c r="D11" t="n">
-        <v>402.3421052631579</v>
+        <v>456.0263157894737</v>
       </c>
     </row>
     <row r="12">
@@ -616,13 +616,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>14808.0</v>
+        <v>16544.0</v>
       </c>
       <c r="D12" t="n">
-        <v>389.6842105263158</v>
+        <v>435.36842105263156</v>
       </c>
     </row>
     <row r="13">
@@ -633,10 +633,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>9184.0</v>
+        <v>9274.0</v>
       </c>
       <c r="D13" t="n">
-        <v>241.68421052631578</v>
+        <v>244.05263157894737</v>
       </c>
     </row>
   </sheetData>
